--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="151">
   <si>
     <t>id</t>
   </si>
@@ -332,6 +332,15 @@
     <t>dominant_adpositional_case</t>
   </si>
   <si>
+    <t>Agreement of adpositions with the absolutive/nominative argument</t>
+  </si>
+  <si>
+    <t>June 2022</t>
+  </si>
+  <si>
+    <t>agreement_of_adpositions</t>
+  </si>
+  <si>
     <t>Elevation in the demonstrative system</t>
   </si>
   <si>
@@ -419,12 +428,6 @@
     <t>Ekaterina Matyukhina</t>
   </si>
   <si>
-    <t>Postpositions</t>
-  </si>
-  <si>
-    <t>Tatiana Philippova, Polina Nasledskova</t>
-  </si>
-  <si>
     <t>Predicative possession</t>
   </si>
   <si>
@@ -509,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -526,6 +529,9 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -814,7 +820,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="b">
-        <f t="shared" ref="B2:B31" si="1">TRUE()</f>
+        <f t="shared" ref="B2:B32" si="1">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2115,35 +2121,38 @@
       <c r="A32" s="5">
         <v>31.0</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2022.0</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="1">
-        <v>2020.0</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="K32" s="1"/>
-      <c r="L32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>108</v>
+      <c r="L32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2156,10 +2165,10 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1">
         <v>2020.0</v>
@@ -2171,7 +2180,7 @@
         <v>16</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
@@ -2182,7 +2191,7 @@
         <v>25</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2195,10 +2204,10 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E34" s="1">
         <v>2020.0</v>
@@ -2210,18 +2219,18 @@
         <v>16</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2232,27 +2241,35 @@
       <c r="A35" s="5">
         <v>34.0</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E35" s="1">
-        <v>2021.0</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+        <v>2020.0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2265,10 +2282,10 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E36" s="1">
         <v>2021.0</v>
@@ -2280,10 +2297,10 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2296,10 +2313,10 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E37" s="1">
         <v>2021.0</v>
@@ -2311,10 +2328,10 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2327,13 +2344,13 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E38" s="1">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2342,10 +2359,10 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -2358,10 +2375,10 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E39" s="1">
         <v>2022.0</v>
@@ -2373,7 +2390,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>20</v>
@@ -2389,27 +2406,25 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="E40" s="1">
+        <v>2022.0</v>
+      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -2427,24 +2442,22 @@
       <c r="D41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="1">
-        <v>2022.0</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="E41" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="F41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -2457,23 +2470,29 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="E42" s="1">
+        <v>2022.0</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2485,15 +2504,13 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="5" t="s">
-        <v>131</v>
+      <c r="C43" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="5">
-        <v>2022.0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2501,10 +2518,10 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2516,13 +2533,13 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>133</v>
+      <c r="C44" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="1">
+        <v>135</v>
+      </c>
+      <c r="E44" s="5">
         <v>2022.0</v>
       </c>
       <c r="F44" s="1"/>
@@ -2530,14 +2547,12 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -2550,7 +2565,7 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>22</v>
@@ -2579,13 +2594,13 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>125</v>
+        <v>138</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>48</v>
@@ -2612,10 +2627,10 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E47" s="1">
         <v>2021.0</v>
@@ -2643,10 +2658,10 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2672,10 +2687,10 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2701,10 +2716,10 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E50" s="1">
         <v>2022.0</v>
@@ -2732,10 +2747,10 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E51" s="1">
         <v>2022.0</v>
@@ -2763,10 +2778,10 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2776,7 +2791,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>20</v>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -320,6 +320,9 @@
     <t>no map</t>
   </si>
   <si>
+    <t>June 2022</t>
+  </si>
+  <si>
     <t>adpositions</t>
   </si>
   <si>
@@ -333,9 +336,6 @@
   </si>
   <si>
     <t>Agreement of adpositions with the absolutive/nominative argument</t>
-  </si>
-  <si>
-    <t>June 2022</t>
   </si>
   <si>
     <t>agreement_of_adpositions</t>
@@ -2052,20 +2052,20 @@
         <v>99</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="5" t="s">
         <v>97</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>85</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>98</v>
@@ -2103,11 +2103,11 @@
         <v>97</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>26</v>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>98</v>
@@ -2135,10 +2135,10 @@
         <v>2022.0</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="5" t="s">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>26</v>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="merged" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">merged!$A$1:$M$52</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">merged!$A$1:$M$53</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miA90Tbav2gJ76l4NxDV25zWxA5Zw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhSyg0mYMEh74fYbbmfeyjAUAMcaA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="154">
   <si>
     <t>id</t>
   </si>
@@ -386,10 +386,19 @@
     <t>Varvara Popova, Rita Popova</t>
   </si>
   <si>
-    <t>Days after today and before yesterday</t>
+    <t>Days after today</t>
   </si>
   <si>
     <t>Timofey Dedov</t>
+  </si>
+  <si>
+    <t>days_after_today</t>
+  </si>
+  <si>
+    <t>Days before today</t>
+  </si>
+  <si>
+    <t>days_before_today</t>
   </si>
   <si>
     <t>Infinitive in the tense-aspect system</t>
@@ -2373,8 +2382,10 @@
       <c r="A39" s="5">
         <v>38.0</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2383,11 +2394,19 @@
       <c r="E39" s="1">
         <v>2022.0</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="F39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
         <v>14</v>
@@ -2402,26 +2421,34 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="5">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>124</v>
+        <v>52.0</v>
+      </c>
+      <c r="B40" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E40" s="1">
         <v>2022.0</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>20</v>
@@ -2433,31 +2460,29 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="5">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="E41" s="1">
+        <v>2022.0</v>
+      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -2466,7 +2491,7 @@
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="5">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
@@ -2475,24 +2500,22 @@
       <c r="D42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="1">
-        <v>2022.0</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="E42" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="F42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2501,27 +2524,33 @@
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="5">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="E43" s="1">
+        <v>2022.0</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2530,18 +2559,16 @@
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="5">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="5" t="s">
-        <v>134</v>
+      <c r="C44" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="5">
-        <v>2022.0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2549,10 +2576,10 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -2561,16 +2588,18 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="5">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>136</v>
+      <c r="C45" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2022.0</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2581,7 +2610,7 @@
         <v>25</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -2590,21 +2619,17 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="5">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2614,7 +2639,7 @@
         <v>25</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -2623,26 +2648,28 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="5">
-        <v>46.0</v>
+        <v>45.0</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="1">
-        <v>2021.0</v>
-      </c>
-      <c r="F47" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>20</v>
@@ -2654,16 +2681,18 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="5">
-        <v>47.0</v>
+        <v>46.0</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2021.0</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2671,10 +2700,10 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -2683,14 +2712,14 @@
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="5">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2700,10 +2729,10 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -2712,18 +2741,16 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="5">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2022.0</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2743,14 +2770,14 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="5">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E51" s="1">
         <v>2022.0</v>
@@ -2762,7 +2789,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>26</v>
@@ -2774,16 +2801,18 @@
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="5">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2022.0</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2791,10 +2820,10 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -2802,10 +2831,16 @@
       <c r="Q52" s="2"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="2"/>
+      <c r="A53" s="5">
+        <v>51.0</v>
+      </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2813,8 +2848,12 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="L53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="2"/>
@@ -6601,7 +6640,7 @@
       <c r="P252" s="2"/>
       <c r="Q252" s="2"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" ht="12.75" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -20832,8 +20871,27 @@
       <c r="P1001" s="2"/>
       <c r="Q1001" s="2"/>
     </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$M$52"/>
+  <autoFilter ref="$A$1:$M$53"/>
   <printOptions/>
   <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -2293,7 +2293,9 @@
       <c r="A40" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>125</v>
       </c>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="154">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -346,6 +346,21 @@
     <t xml:space="preserve">agreement_of_adpositions</t>
   </si>
   <si>
+    <t xml:space="preserve">Days after today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timofey Dedov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days_after_today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days before today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days_before_today</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elevation in the demonstrative system</t>
   </si>
   <si>
@@ -389,21 +404,6 @@
   </si>
   <si>
     <t xml:space="preserve">Varvara Popova, Rita Popova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days after today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timofey Dedov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days_after_today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days before today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days_before_today</t>
   </si>
   <si>
     <t xml:space="preserve">Infinitive in the tense-aspect system</t>
@@ -624,15 +624,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1002"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.63"/>
@@ -2042,7 +2042,10 @@
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>107</v>
       </c>
@@ -2050,27 +2053,27 @@
         <v>108</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>16</v>
+        <v>2022</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2081,35 +2084,38 @@
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="C34" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>16</v>
+        <v>2022</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -2122,10 +2128,10 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>2020</v>
@@ -2137,7 +2143,7 @@
         <v>16</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
@@ -2148,7 +2154,7 @@
         <v>25</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2159,27 +2165,35 @@
       <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2190,27 +2204,35 @@
       <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2223,10 +2245,10 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>2021</v>
@@ -2252,34 +2274,24 @@
       <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>20</v>
@@ -2291,37 +2303,29 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B40" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -2330,7 +2334,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
@@ -2361,7 +2365,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
@@ -2394,7 +2398,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
@@ -2429,7 +2433,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
@@ -2458,7 +2462,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
@@ -2489,7 +2493,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
@@ -2518,7 +2522,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
@@ -2551,7 +2555,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -2582,7 +2586,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
@@ -2611,7 +2615,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -2640,7 +2644,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
@@ -2671,7 +2675,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
@@ -2702,7 +2706,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
@@ -20760,6 +20764,8 @@
       <c r="P1002" s="3"/>
       <c r="Q1002" s="3"/>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:M53"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -448,16 +448,16 @@
     <t xml:space="preserve">numeral_ordinals</t>
   </si>
   <si>
+    <t xml:space="preserve">Derivation of distributives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeral_distributives</t>
+  </si>
+  <si>
     <t xml:space="preserve">Root for ‘hundred’</t>
   </si>
   <si>
     <t xml:space="preserve">numeral_root_hundred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derivation of distributives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numeral_distributives</t>
   </si>
   <si>
     <t xml:space="preserve">Numeral systems</t>
@@ -720,7 +720,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -730,7 +730,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="14.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="28.76"/>
@@ -3268,7 +3268,10 @@
       <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>143</v>
       </c>
@@ -30344,7 +30347,7 @@
       <c r="Y1014" s="3"/>
       <c r="Z1014" s="3"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:M67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="183">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -720,7 +720,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2551,9 +2551,8 @@
       <c r="J35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K35" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K35" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>116</v>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="189">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -732,9 +732,9 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E49" activeCellId="0" sqref="E49:G49"/>
+      <selection pane="bottomLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -745,7 +745,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="28.76"/>
@@ -2566,9 +2566,8 @@
       <c r="J35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K35" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K35" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>116</v>
@@ -3331,8 +3330,12 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>149</v>
       </c>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -733,7 +733,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
+      <selection pane="bottomLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -11,7 +11,7 @@
     <sheet name="merged" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">merged!$A$1:$N$76</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">merged!$A$1:$N$77</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="211">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -502,6 +502,18 @@
     <t xml:space="preserve">causatives</t>
   </si>
   <si>
+    <t xml:space="preserve">Numeral Bases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeral_bases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Causatives: the causee encoding</t>
   </si>
   <si>
@@ -895,12 +907,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA995"/>
+  <dimension ref="A1:AA996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -910,7 +922,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="14.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.76"/>
@@ -3753,29 +3765,46 @@
       <c r="AA51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="10" t="s">
+      <c r="A52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -3794,15 +3823,15 @@
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>24</v>
+      <c r="C53" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3814,7 +3843,7 @@
         <v>27</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -3834,10 +3863,10 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="n">
@@ -3850,10 +3879,10 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3873,13 +3902,15 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="n">
+        <v>2021</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3887,10 +3918,10 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3910,15 +3941,13 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="2" t="n">
-        <v>2022</v>
-      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3949,10 +3978,10 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="n">
@@ -3965,7 +3994,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>28</v>
@@ -3988,13 +4017,15 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="n">
+        <v>2022</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -4002,10 +4033,10 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -4025,28 +4056,24 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2" t="n">
-        <v>2021</v>
-      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -4066,10 +4093,10 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="n">
@@ -4077,7 +4104,9 @@
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="I60" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -4105,14 +4134,14 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -4121,10 +4150,10 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -4144,28 +4173,26 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -4181,7 +4208,7 @@
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
@@ -4190,23 +4217,23 @@
       <c r="D63" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G63" s="2"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="H63" s="2"/>
-      <c r="I63" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -4214,22 +4241,22 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="n">
@@ -4237,15 +4264,17 @@
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="I64" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -4265,13 +4294,15 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="F65" s="2" t="n">
+        <v>2022</v>
+      </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -4279,9 +4310,11 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -4300,10 +4333,10 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -4314,7 +4347,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -4335,15 +4368,13 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2" t="n">
-        <v>2022</v>
-      </c>
+      <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -4351,11 +4382,9 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -4374,10 +4403,10 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="n">
@@ -4390,10 +4419,10 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -4413,10 +4442,10 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="n">
@@ -4429,10 +4458,10 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -4452,10 +4481,10 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="n">
@@ -4487,18 +4516,18 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -4518,22 +4547,22 @@
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="n">
@@ -4546,10 +4575,10 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -4569,10 +4598,10 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="n">
@@ -4580,16 +4609,16 @@
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -4608,10 +4637,10 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="n">
@@ -4626,11 +4655,9 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -4649,10 +4676,10 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="n">
@@ -4667,9 +4694,11 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -4687,9 +4716,11 @@
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D76" s="2" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="n">
@@ -4697,14 +4728,16 @@
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+      <c r="I76" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="M76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -4723,9 +4756,13 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -4733,7 +4770,9 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -10113,7 +10152,7 @@
       <c r="Z262" s="3"/>
       <c r="AA262" s="3"/>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -31370,8 +31409,37 @@
       <c r="Z995" s="3"/>
       <c r="AA995" s="3"/>
     </row>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A996" s="2"/>
+      <c r="B996" s="2"/>
+      <c r="C996" s="2"/>
+      <c r="D996" s="2"/>
+      <c r="E996" s="2"/>
+      <c r="F996" s="2"/>
+      <c r="G996" s="2"/>
+      <c r="H996" s="2"/>
+      <c r="I996" s="2"/>
+      <c r="J996" s="2"/>
+      <c r="K996" s="2"/>
+      <c r="L996" s="2"/>
+      <c r="M996" s="2"/>
+      <c r="N996" s="2"/>
+      <c r="O996" s="2"/>
+      <c r="P996" s="2"/>
+      <c r="Q996" s="2"/>
+      <c r="R996" s="2"/>
+      <c r="S996" s="2"/>
+      <c r="T996" s="2"/>
+      <c r="U996" s="3"/>
+      <c r="V996" s="3"/>
+      <c r="W996" s="3"/>
+      <c r="X996" s="3"/>
+      <c r="Y996" s="3"/>
+      <c r="Z996" s="3"/>
+      <c r="AA996" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N76"/>
+  <autoFilter ref="A1:N77"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="213">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -514,6 +514,18 @@
     <t xml:space="preserve">?</t>
   </si>
   <si>
+    <t xml:space="preserve">Farewell wishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farewell_wishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kostya</t>
+  </si>
+  <si>
     <t xml:space="preserve">Causatives: the causee encoding</t>
   </si>
   <si>
@@ -580,9 +592,6 @@
     <t xml:space="preserve">Legacy</t>
   </si>
   <si>
-    <t xml:space="preserve">Kostya</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cardinal directions</t>
   </si>
   <si>
@@ -605,9 +614,6 @@
   </si>
   <si>
     <t xml:space="preserve">Asya Alekseeva, Michael Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farewell wishes</t>
   </si>
   <si>
     <t xml:space="preserve">Affective predicates: argument encoding</t>
@@ -907,12 +913,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA996"/>
+  <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3820,30 +3826,44 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="10" t="s">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -3851,26 +3871,26 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>24</v>
+      <c r="C54" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -3882,7 +3902,7 @@
         <v>27</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3902,10 +3922,10 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="n">
@@ -3918,10 +3938,10 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3941,13 +3961,15 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="n">
+        <v>2021</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3955,10 +3977,10 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -3978,15 +4000,13 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="2" t="n">
-        <v>2022</v>
-      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -4017,10 +4037,10 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="n">
@@ -4033,7 +4053,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>28</v>
@@ -4056,13 +4076,15 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="n">
+        <v>2022</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -4070,10 +4092,10 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -4093,28 +4115,24 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2" t="n">
-        <v>2021</v>
-      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -4134,10 +4152,10 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="n">
@@ -4145,7 +4163,9 @@
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="I61" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -4173,14 +4193,14 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -4189,10 +4209,10 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -4212,28 +4232,26 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -4249,7 +4267,7 @@
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
@@ -4258,23 +4276,23 @@
       <c r="D64" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G64" s="2"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -4282,22 +4300,22 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="n">
@@ -4305,15 +4323,17 @@
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="I65" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -4333,13 +4353,15 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2" t="n">
+        <v>2022</v>
+      </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -4347,9 +4369,11 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -4368,10 +4392,10 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -4382,7 +4406,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -4403,15 +4427,13 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="2" t="n">
-        <v>2022</v>
-      </c>
+      <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -4419,11 +4441,9 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -4442,10 +4462,10 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="n">
@@ -4458,10 +4478,10 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -4481,10 +4501,10 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="n">
@@ -4520,10 +4540,10 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="n">
@@ -4559,10 +4579,10 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="n">
@@ -4598,10 +4618,10 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="n">
@@ -4617,7 +4637,7 @@
         <v>45</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -4637,10 +4657,10 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="n">
@@ -4655,7 +4675,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -4676,10 +4696,10 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="n">
@@ -4717,7 +4737,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>15</v>
@@ -4757,7 +4777,7 @@
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="n">
@@ -4771,7 +4791,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -31438,6 +31458,7 @@
       <c r="Z996" s="3"/>
       <c r="AA996" s="3"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:N77"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -11,7 +11,7 @@
     <sheet name="merged" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">merged!$A$1:$N$77</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">merged!$A$1:$N$78</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="216">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -526,6 +526,15 @@
     <t xml:space="preserve">Kostya</t>
   </si>
   <si>
+    <t xml:space="preserve">Distinction between transitive and intransitive imperatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Starodubtseva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans_intrans_imperativ_data</t>
+  </si>
+  <si>
     <t xml:space="preserve">Causatives: the causee encoding</t>
   </si>
   <si>
@@ -913,12 +922,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3830,7 +3839,8 @@
       <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="b">
+      <c r="B53" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3879,30 +3889,38 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="10" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="K54" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3910,26 +3928,26 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>24</v>
+      <c r="C55" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3941,7 +3959,7 @@
         <v>27</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3961,10 +3979,10 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="n">
@@ -3977,10 +3995,10 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -4000,13 +4018,15 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2" t="n">
+        <v>2021</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -4014,10 +4034,10 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -4037,15 +4057,13 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="2" t="n">
-        <v>2022</v>
-      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -4076,10 +4094,10 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="n">
@@ -4092,7 +4110,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>28</v>
@@ -4115,13 +4133,15 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2" t="n">
+        <v>2022</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -4129,10 +4149,10 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -4152,28 +4172,24 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2" t="n">
-        <v>2021</v>
-      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -4193,10 +4209,10 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="n">
@@ -4204,7 +4220,9 @@
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="I62" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -4232,14 +4250,14 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -4248,10 +4266,10 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -4271,28 +4289,26 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -4308,7 +4324,7 @@
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
@@ -4317,23 +4333,23 @@
       <c r="D65" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G65" s="2"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="H65" s="2"/>
-      <c r="I65" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -4341,22 +4357,22 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="n">
@@ -4364,15 +4380,17 @@
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="I66" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -4392,13 +4410,15 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2" t="n">
+        <v>2022</v>
+      </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -4406,9 +4426,11 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -4427,10 +4449,10 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -4441,7 +4463,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -4462,15 +4484,13 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="2" t="n">
-        <v>2022</v>
-      </c>
+      <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -4478,11 +4498,9 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>166</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -4501,10 +4519,10 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="n">
@@ -4517,10 +4535,10 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -4540,10 +4558,10 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="n">
@@ -4575,18 +4593,18 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -4606,22 +4624,22 @@
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="n">
@@ -4634,10 +4652,10 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -4657,10 +4675,10 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="n">
@@ -4668,16 +4686,16 @@
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -4714,11 +4732,9 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -4737,10 +4753,10 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="n">
@@ -4755,9 +4771,11 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -4775,9 +4793,11 @@
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="D77" s="2" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="n">
@@ -4785,14 +4805,16 @@
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="I77" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="M77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -4811,9 +4833,13 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -4821,7 +4847,9 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="N78" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -10201,7 +10229,7 @@
       <c r="Z263" s="3"/>
       <c r="AA263" s="3"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -31458,9 +31486,37 @@
       <c r="Z996" s="3"/>
       <c r="AA996" s="3"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A997" s="2"/>
+      <c r="B997" s="2"/>
+      <c r="C997" s="2"/>
+      <c r="D997" s="2"/>
+      <c r="E997" s="2"/>
+      <c r="F997" s="2"/>
+      <c r="G997" s="2"/>
+      <c r="H997" s="2"/>
+      <c r="I997" s="2"/>
+      <c r="J997" s="2"/>
+      <c r="K997" s="2"/>
+      <c r="L997" s="2"/>
+      <c r="M997" s="2"/>
+      <c r="N997" s="2"/>
+      <c r="O997" s="2"/>
+      <c r="P997" s="2"/>
+      <c r="Q997" s="2"/>
+      <c r="R997" s="2"/>
+      <c r="S997" s="2"/>
+      <c r="T997" s="2"/>
+      <c r="U997" s="3"/>
+      <c r="V997" s="3"/>
+      <c r="W997" s="3"/>
+      <c r="X997" s="3"/>
+      <c r="Y997" s="3"/>
+      <c r="Z997" s="3"/>
+      <c r="AA997" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N77"/>
+  <autoFilter ref="A1:N78"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="merged" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">merged!$A$1:$N$79</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">merged!$A$1:$N$86</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5ocNw4frvLMqVfDZUdIHpzONt+n8uakI0r51i+/xk0A="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="grgJQwpYSzJVQT/s4BgJII8Ian8svfZCKB7FrnXbEOQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="234">
   <si>
     <t>id</t>
   </si>
@@ -542,6 +542,45 @@
     <t>number_of_morphological_slots_in_spatial_forms</t>
   </si>
   <si>
+    <t>Jussive</t>
+  </si>
+  <si>
+    <t>February 2024</t>
+  </si>
+  <si>
+    <t>jussive</t>
+  </si>
+  <si>
+    <t>Gender agreement slot in nominal inflectional paradigms</t>
+  </si>
+  <si>
+    <t>Rita Popova</t>
+  </si>
+  <si>
+    <t>gender_agreement_slot</t>
+  </si>
+  <si>
+    <t>Plural marking on imperatives and prohibitives</t>
+  </si>
+  <si>
+    <t>Vasiliy Zerzele</t>
+  </si>
+  <si>
+    <t>plural_marking_on_imperatives</t>
+  </si>
+  <si>
+    <t>Distinction between transitive and intransitive imperatives</t>
+  </si>
+  <si>
+    <t>Maria Starodubtseva</t>
+  </si>
+  <si>
+    <t>Usage of volitional forms in subordinate clauses</t>
+  </si>
+  <si>
+    <t>Pavel Astafyev</t>
+  </si>
+  <si>
     <t>Causatives: the causee encoding</t>
   </si>
   <si>
@@ -579,12 +618,6 @@
   </si>
   <si>
     <t>Timur Maisak, Samira Verhees</t>
-  </si>
-  <si>
-    <t>Class agreement slot in case paradigms</t>
-  </si>
-  <si>
-    <t>Varvara Popova, Rita Popova</t>
   </si>
   <si>
     <t>Infinitive in the tense-aspect system</t>
@@ -638,12 +671,6 @@
     <t>Anastasia Ivanova</t>
   </si>
   <si>
-    <t>Usage of volitional forms in subordinate clauses</t>
-  </si>
-  <si>
-    <t>Pavel Astafyev</t>
-  </si>
-  <si>
     <t>Lexification patterns of the sense 'to work'</t>
   </si>
   <si>
@@ -662,22 +689,37 @@
     <t>Concept 'maize'</t>
   </si>
   <si>
+    <t>Adaptation of verbal borrowings</t>
+  </si>
+  <si>
     <t>Zaira Khalilova</t>
   </si>
   <si>
     <t>Lena</t>
   </si>
   <si>
-    <t>Distinction between transitive and intransitive imperatives</t>
+    <t>Reflexive pronouns</t>
   </si>
   <si>
-    <t>Maria Starodubtseva</t>
+    <t>Dedicated plural agreement on adjectives</t>
   </si>
   <si>
-    <t>Plural marking of imperatives and prohibitives</t>
+    <t>Syllable structure</t>
   </si>
   <si>
-    <t>Vasiliy Zerzele</t>
+    <t>Alena Muravyeva</t>
+  </si>
+  <si>
+    <t>Localizations in spatial paradigms</t>
+  </si>
+  <si>
+    <t>Vladislava Termus</t>
+  </si>
+  <si>
+    <t>Hortatives</t>
+  </si>
+  <si>
+    <t>Negation</t>
   </si>
 </sst>
 </file>
@@ -705,12 +747,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -731,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -747,7 +795,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -758,6 +809,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2780,16 +2834,16 @@
       <c r="D33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="5">
         <v>2022.0</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="5" t="s">
         <v>102</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -2834,16 +2888,16 @@
       <c r="D34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="5">
         <v>2022.0</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="5" t="s">
         <v>102</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -3665,7 +3719,7 @@
       <c r="A49" s="1">
         <v>48.0</v>
       </c>
-      <c r="B49" s="5" t="b">
+      <c r="B49" s="6" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3678,13 +3732,13 @@
       <c r="E49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="7">
         <v>2023.0</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="8" t="s">
         <v>148</v>
       </c>
       <c r="I49" s="1" t="s">
@@ -3719,7 +3773,7 @@
       <c r="A50" s="1">
         <v>49.0</v>
       </c>
-      <c r="B50" s="5" t="b">
+      <c r="B50" s="6" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3775,7 +3829,7 @@
       <c r="A51" s="1">
         <v>50.0</v>
       </c>
-      <c r="B51" s="5" t="b">
+      <c r="B51" s="6" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3829,7 +3883,7 @@
       <c r="A52" s="1">
         <v>51.0</v>
       </c>
-      <c r="B52" s="5" t="b">
+      <c r="B52" s="6" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3935,7 +3989,7 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="8">
+      <c r="A54" s="9">
         <v>53.0</v>
       </c>
       <c r="B54" s="3" t="b">
@@ -3959,11 +4013,11 @@
       <c r="H54" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J54" s="1"/>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="9" t="s">
         <v>169</v>
       </c>
       <c r="L54" s="1"/>
@@ -3988,7 +4042,7 @@
       <c r="AA54" s="2"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="8">
+      <c r="A55" s="9">
         <v>54.0</v>
       </c>
       <c r="B55" s="3" t="b">
@@ -4003,20 +4057,20 @@
       <c r="E55" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="9">
         <v>2023.0</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="9" t="s">
         <v>172</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J55" s="1"/>
-      <c r="K55" s="8" t="s">
+      <c r="K55" s="9" t="s">
         <v>173</v>
       </c>
       <c r="L55" s="1"/>
@@ -4041,29 +4095,43 @@
       <c r="AA55" s="2"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
+      <c r="A56" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="B56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="9">
+        <v>2023.0</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1">
-        <v>2022.0</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="H56" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="K56" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="L56" s="1"/>
-      <c r="M56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>22</v>
+      <c r="M56" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -4080,23 +4148,37 @@
       <c r="AA56" s="2"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1">
-        <v>2021.0</v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="A57" s="9">
+        <v>56.0</v>
+      </c>
+      <c r="B57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="9">
+        <v>2023.0</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="K57" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
         <v>27</v>
@@ -4119,29 +4201,41 @@
       <c r="AA57" s="2"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="1"/>
+      <c r="A58" s="9">
+        <v>57.0</v>
+      </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E58" s="1"/>
+      <c r="C58" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F58" s="1">
-        <v>2021.0</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+        <v>2023.0</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="K58" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -4160,14 +4254,16 @@
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>180</v>
+      <c r="C59" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="1">
+        <v>2023.0</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4175,9 +4271,9 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N59" s="9" t="s">
         <v>28</v>
       </c>
       <c r="O59" s="1"/>
@@ -4198,14 +4294,14 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -4214,10 +4310,10 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -4237,10 +4333,10 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1">
@@ -4253,10 +4349,10 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -4276,13 +4372,15 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="F62" s="1">
+        <v>2021.0</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4290,10 +4388,10 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -4313,10 +4411,10 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1">
@@ -4329,10 +4427,10 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -4352,15 +4450,13 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="1">
-        <v>2022.0</v>
-      </c>
+      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4368,10 +4464,10 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -4391,18 +4487,16 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1">
+        <v>2022.0</v>
+      </c>
+      <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -4412,7 +4506,7 @@
         <v>27</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -4428,14 +4522,14 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1">
@@ -4443,14 +4537,12 @@
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>28</v>
@@ -4461,27 +4553,25 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+    </row>
+    <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="1">
-        <v>2022.0</v>
-      </c>
+      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4489,10 +4579,10 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -4500,25 +4590,27 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+    </row>
+    <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="1">
+        <v>2022.0</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4528,64 +4620,72 @@
       <c r="M68" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N68" s="1"/>
+      <c r="N68" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+    </row>
+    <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="N69" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1">
@@ -4593,15 +4693,17 @@
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -4621,10 +4723,10 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1">
@@ -4637,10 +4739,10 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -4660,15 +4762,13 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="1">
-        <v>2022.0</v>
-      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4678,9 +4778,7 @@
       <c r="M72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -4695,19 +4793,17 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="1">
-        <v>2023.0</v>
-      </c>
+      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4715,87 +4811,83 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-      <c r="AA73" s="2"/>
-    </row>
-    <row r="74" ht="12.75" customHeight="1">
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N74" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-      <c r="AA74" s="2"/>
-    </row>
-    <row r="75" ht="12.75" customHeight="1">
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>28</v>
@@ -4806,59 +4898,61 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-    </row>
-    <row r="76" ht="12.75" customHeight="1">
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N76" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="D77" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1">
@@ -4866,14 +4960,16 @@
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="I77" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="M77" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -4891,11 +4987,11 @@
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>217</v>
+      <c r="C78" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1">
@@ -4903,14 +4999,18 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="I78" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N78" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -4928,11 +5028,11 @@
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>219</v>
+      <c r="C79" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1">
@@ -4940,12 +5040,14 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -4965,18 +5067,28 @@
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="C80" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="1">
+        <v>2023.0</v>
+      </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
+      <c r="M80" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -4994,8 +5106,12 @@
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="C81" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -5004,8 +5120,12 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
+      <c r="M81" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -5023,8 +5143,12 @@
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="C82" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -5033,7 +5157,9 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
+      <c r="M82" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -5052,17 +5178,25 @@
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="C83" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="I83" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
+      <c r="M83" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -5081,18 +5215,28 @@
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="C84" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="I84" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
+      <c r="M84" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -5110,8 +5254,12 @@
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="C85" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -5120,7 +5268,9 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
+      <c r="M85" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -5136,34 +5286,13 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
-      <c r="AA86" s="2"/>
+    <row r="86">
+      <c r="C86" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="1"/>
@@ -10298,7 +10427,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -10705,26 +10834,26 @@
       <c r="AA277" s="2"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2"/>
-      <c r="L278" s="2"/>
-      <c r="M278" s="2"/>
-      <c r="N278" s="2"/>
-      <c r="O278" s="2"/>
-      <c r="P278" s="2"/>
-      <c r="Q278" s="2"/>
-      <c r="R278" s="2"/>
-      <c r="S278" s="2"/>
-      <c r="T278" s="2"/>
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1"/>
+      <c r="L278" s="1"/>
+      <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+      <c r="P278" s="1"/>
+      <c r="Q278" s="1"/>
+      <c r="R278" s="1"/>
+      <c r="S278" s="1"/>
+      <c r="T278" s="1"/>
       <c r="U278" s="2"/>
       <c r="V278" s="2"/>
       <c r="W278" s="2"/>
@@ -31671,8 +31800,37 @@
       <c r="Z1000" s="2"/>
       <c r="AA1000" s="2"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+      <c r="AA1001" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$N$79"/>
+  <autoFilter ref="$A$1:$N$86"/>
   <printOptions/>
   <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -4204,7 +4204,9 @@
       <c r="A58" s="9">
         <v>57.0</v>
       </c>
-      <c r="B58" s="1"/>
+      <c r="B58" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="C58" s="9" t="s">
         <v>180</v>
       </c>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="236">
   <si>
     <t>id</t>
   </si>
@@ -575,6 +575,12 @@
     <t>Maria Starodubtseva</t>
   </si>
   <si>
+    <t>March 2024</t>
+  </si>
+  <si>
+    <t>trans_intrans_imperative</t>
+  </si>
+  <si>
     <t>Usage of volitional forms in subordinate clauses</t>
   </si>
   <si>
@@ -4254,23 +4260,37 @@
       <c r="AA58" s="2"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="9">
+        <v>58.0</v>
+      </c>
+      <c r="B59" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="C59" s="9" t="s">
         <v>183</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F59" s="1">
         <v>2023.0</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="G59" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="K59" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
         <v>45</v>
@@ -4296,10 +4316,10 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1">
@@ -4314,8 +4334,8 @@
       <c r="M60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N60" s="1" t="s">
-        <v>166</v>
+      <c r="N60" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -4335,10 +4355,10 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1">
@@ -4374,7 +4394,7 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>24</v>
@@ -4413,10 +4433,10 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1">
@@ -4452,10 +4472,10 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -4489,10 +4509,10 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1">
@@ -4528,10 +4548,10 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1">
@@ -4567,10 +4587,10 @@
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -4581,7 +4601,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>22</v>
@@ -4604,10 +4624,10 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1">
@@ -4643,14 +4663,14 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>37</v>
@@ -4684,10 +4704,10 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1">
@@ -4725,7 +4745,7 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>147</v>
@@ -4764,7 +4784,7 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>93</v>
@@ -4799,10 +4819,10 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4813,7 +4833,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -4834,10 +4854,10 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1">
@@ -4873,10 +4893,10 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1">
@@ -4912,10 +4932,10 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1">
@@ -4951,10 +4971,10 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1">
@@ -4969,7 +4989,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -4990,10 +5010,10 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1">
@@ -5031,7 +5051,7 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>15</v>
@@ -5070,10 +5090,10 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1">
@@ -5086,10 +5106,10 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -5109,7 +5129,7 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>168</v>
@@ -5146,7 +5166,7 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>119</v>
@@ -5181,10 +5201,10 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -5218,10 +5238,10 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -5234,7 +5254,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N84" s="9" t="s">
         <v>28</v>
@@ -5257,10 +5277,10 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -5290,7 +5310,7 @@
     </row>
     <row r="86">
       <c r="C86" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>115</v>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="merged" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">merged!$A$1:$N$90</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">merged!$A$1:$N$91</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="254">
   <si>
     <t>id</t>
   </si>
@@ -593,6 +593,15 @@
     <t>inclusive_exclusive_distinction_in_personal_pronouns</t>
   </si>
   <si>
+    <t>Path encoding</t>
+  </si>
+  <si>
+    <t>February 2025</t>
+  </si>
+  <si>
+    <t>path_encoding</t>
+  </si>
+  <si>
     <t>Usage of volitional forms in subordinate clauses</t>
   </si>
   <si>
@@ -602,10 +611,16 @@
     <t>Predicative possession</t>
   </si>
   <si>
+    <t>Chiara Naccarato, Boris Yakubson</t>
+  </si>
+  <si>
     <t>Preverbs</t>
   </si>
   <si>
     <t>Evgeniya Klyagina</t>
+  </si>
+  <si>
+    <t>Max?</t>
   </si>
   <si>
     <t>Spatial orientation systems</t>
@@ -620,10 +635,16 @@
     <t>Ilya Sadakov</t>
   </si>
   <si>
+    <t>Yura?</t>
+  </si>
+  <si>
     <t>Systems of grammatical cases</t>
   </si>
   <si>
     <t>Katerina Dagkou</t>
+  </si>
+  <si>
+    <t>Masha Ogurtsova?</t>
   </si>
   <si>
     <t>Time nouns</t>
@@ -644,6 +665,9 @@
     <t>Inga Kartozia</t>
   </si>
   <si>
+    <t>Rita?</t>
+  </si>
+  <si>
     <t>Legacy</t>
   </si>
   <si>
@@ -654,6 +678,9 @@
   </si>
   <si>
     <t>Reflexivization</t>
+  </si>
+  <si>
+    <t>Ira?</t>
   </si>
   <si>
     <t>Non-verbal imperatives</t>
@@ -734,9 +761,6 @@
     <t>Anastasia Antsupova</t>
   </si>
   <si>
-    <t>Path encoding</t>
-  </si>
-  <si>
     <t>Class agreement slot in verb forms</t>
   </si>
   <si>
@@ -750,6 +774,12 @@
   </si>
   <si>
     <t>Alina Hurges</t>
+  </si>
+  <si>
+    <t>Colexification of take/buy</t>
+  </si>
+  <si>
+    <t>Liza Kikhtenko</t>
   </si>
 </sst>
 </file>
@@ -777,7 +807,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +826,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -809,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -838,6 +874,15 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4389,27 +4434,41 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="B61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="9">
+        <v>2025.0</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1">
-        <v>2023.0</v>
-      </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="H61" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="K61" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="L61" s="1"/>
-      <c r="M61" s="1" t="s">
-        <v>45</v>
+      <c r="M61" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="N61" s="9" t="s">
         <v>28</v>
@@ -4420,26 +4479,26 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
-        <v>2021.0</v>
+        <v>2023.0</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4448,9 +4507,9 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N62" s="9" t="s">
         <v>28</v>
       </c>
       <c r="O62" s="1"/>
@@ -4471,10 +4530,10 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1">
@@ -4487,10 +4546,10 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -4509,14 +4568,18 @@
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>196</v>
+      <c r="C64" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2021.0</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4524,10 +4587,10 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -4547,15 +4610,13 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="1">
-        <v>2022.0</v>
-      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4585,13 +4646,15 @@
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
-        <v>200</v>
+      <c r="C66" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="F66" s="1">
         <v>2022.0</v>
       </c>
@@ -4602,7 +4665,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>28</v>
@@ -4624,14 +4687,18 @@
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
-        <v>202</v>
+      <c r="C67" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2022.0</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4639,10 +4706,10 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -4662,15 +4729,13 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="1">
-        <v>2022.0</v>
-      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4678,7 +4743,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>22</v>
@@ -4701,28 +4766,26 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1">
+        <v>2022.0</v>
+      </c>
+      <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -4738,32 +4801,34 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
-        <v>209</v>
+      <c r="C70" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1">
-        <v>2022.0</v>
-      </c>
-      <c r="G70" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -4771,22 +4836,22 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1">
@@ -4794,15 +4859,17 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -4821,15 +4888,17 @@
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="1" t="s">
-        <v>212</v>
+      <c r="C72" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="9">
-        <v>2024.0</v>
+        <v>147</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2022.0</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -4838,9 +4907,11 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N72" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -4859,13 +4930,15 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="9">
+        <v>2024.0</v>
+      </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4873,7 +4946,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -4894,15 +4967,13 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="1">
-        <v>2022.0</v>
-      </c>
+      <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -4910,11 +4981,9 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -4933,10 +5002,10 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1">
@@ -4968,53 +5037,53 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N76" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1">
@@ -5029,11 +5098,9 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -5052,10 +5119,10 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1">
@@ -5070,9 +5137,11 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N78" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -5090,11 +5159,11 @@
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="9" t="s">
-        <v>225</v>
+      <c r="C79" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1">
@@ -5102,16 +5171,16 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>227</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -5130,14 +5199,14 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>168</v>
+        <v>234</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="9">
-        <v>2024.0</v>
+      <c r="F80" s="1">
+        <v>2023.0</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -5145,11 +5214,11 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>28</v>
+      <c r="M80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -5169,10 +5238,10 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="9" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="9">
@@ -5185,9 +5254,11 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="N81" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -5206,10 +5277,10 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="9" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="9">
@@ -5217,14 +5288,12 @@
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="9" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -5244,11 +5313,11 @@
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="9" t="s">
-        <v>232</v>
+      <c r="C83" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="9">
@@ -5257,17 +5326,15 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="9" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -5285,11 +5352,11 @@
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="9" t="s">
-        <v>234</v>
+      <c r="C84" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="9">
@@ -5297,14 +5364,18 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="I84" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N84" s="1"/>
+        <v>230</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -5319,62 +5390,62 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85">
-      <c r="C85" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>115</v>
-      </c>
+    <row r="85" ht="12.75" customHeight="1">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E85" s="1"/>
       <c r="F85" s="9">
         <v>2024.0</v>
       </c>
-    </row>
-    <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E86" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="F86" s="9">
         <v>2024.0</v>
       </c>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
-      <c r="AA86" s="2"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="9" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="9">
@@ -5387,11 +5458,9 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N87" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -5410,10 +5479,10 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="9">
@@ -5446,11 +5515,11 @@
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="9" t="s">
-        <v>241</v>
+      <c r="C89" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="9">
@@ -5486,10 +5555,10 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="9" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="9">
@@ -5520,10 +5589,16 @@
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="C91" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="F91" s="9">
+        <v>2025.0</v>
+      </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5531,7 +5606,9 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
+      <c r="N91" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -31879,7 +31956,7 @@
       <c r="AA999" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$N$90"/>
+  <autoFilter ref="$A$1:$N$91"/>
   <printOptions/>
   <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="256">
   <si>
     <t>id</t>
   </si>
@@ -602,6 +602,21 @@
     <t>path_encoding</t>
   </si>
   <si>
+    <t>Lexification patterns of the sense 'to work'</t>
+  </si>
+  <si>
+    <t>Svetlana Zemicheva, Konstantin Filatov</t>
+  </si>
+  <si>
+    <t>March 2025</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>Konstantin Filatov</t>
+  </si>
+  <si>
     <t>Usage of volitional forms in subordinate clauses</t>
   </si>
   <si>
@@ -702,15 +717,6 @@
   </si>
   <si>
     <t>Anastasia Ivanova</t>
-  </si>
-  <si>
-    <t>Lexification patterns of the sense 'to work'</t>
-  </si>
-  <si>
-    <t>Svetlana Zemicheva</t>
-  </si>
-  <si>
-    <t>Konstantin Filatov</t>
   </si>
   <si>
     <t>Meaning of the words hajwan and dʒanawar</t>
@@ -4488,29 +4494,43 @@
       <c r="AA61" s="1"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="9">
+        <v>61.0</v>
+      </c>
+      <c r="B62" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1">
-        <v>2023.0</v>
-      </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="9">
+        <v>2025.0</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="K62" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -4530,14 +4550,14 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1">
-        <v>2021.0</v>
+        <v>2023.0</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -4546,9 +4566,9 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N63" s="9" t="s">
         <v>28</v>
       </c>
       <c r="O63" s="1"/>
@@ -4568,15 +4588,13 @@
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>200</v>
-      </c>
+      <c r="C64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1">
         <v>2021.0</v>
       </c>
@@ -4587,10 +4605,10 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -4609,14 +4627,18 @@
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>201</v>
+      <c r="C65" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2021.0</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4624,10 +4646,10 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -4646,18 +4668,14 @@
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="10" t="s">
-        <v>203</v>
+      <c r="C66" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F66" s="1">
-        <v>2022.0</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4688,13 +4706,13 @@
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F67" s="1">
         <v>2022.0</v>
@@ -4706,7 +4724,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>28</v>
@@ -4728,14 +4746,18 @@
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
-        <v>209</v>
+      <c r="C68" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2022.0</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4743,10 +4765,10 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -4766,15 +4788,13 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="1">
-        <v>2022.0</v>
-      </c>
+      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4782,7 +4802,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>22</v>
@@ -4804,31 +4824,27 @@
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="10" t="s">
-        <v>213</v>
+      <c r="C70" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1">
+        <v>2022.0</v>
+      </c>
+      <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -4844,32 +4860,34 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="1" t="s">
-        <v>217</v>
+      <c r="C71" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1">
-        <v>2022.0</v>
-      </c>
-      <c r="G71" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -4877,40 +4895,40 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="10" t="s">
-        <v>219</v>
+      <c r="C72" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>220</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E72" s="1"/>
       <c r="F72" s="1">
         <v>2022.0</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="I72" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -4929,15 +4947,17 @@
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
-        <v>221</v>
+      <c r="C73" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="9">
-        <v>2024.0</v>
+        <v>147</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2022.0</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -4946,9 +4966,11 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N73" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -4967,13 +4989,15 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="9">
+        <v>2024.0</v>
+      </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -4981,7 +5005,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -5002,15 +5026,13 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="1">
-        <v>2022.0</v>
-      </c>
+      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5018,11 +5040,9 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -5041,10 +5061,10 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1">
@@ -5076,53 +5096,53 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N77" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1">
@@ -5160,7 +5180,7 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>15</v>
@@ -5199,10 +5219,10 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1">
@@ -5215,10 +5235,10 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -5238,7 +5258,7 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>168</v>
@@ -5277,7 +5297,7 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>119</v>
@@ -5314,10 +5334,10 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="9">
@@ -5353,10 +5373,10 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="9">
@@ -5371,7 +5391,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="9" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="N84" s="9" t="s">
         <v>28</v>
@@ -5394,10 +5414,10 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="9">
@@ -5429,7 +5449,7 @@
     </row>
     <row r="86">
       <c r="C86" s="13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>115</v>
@@ -5442,10 +5462,10 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="9">
@@ -5479,10 +5499,10 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="9">
@@ -5516,10 +5536,10 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="9">
@@ -5555,10 +5575,10 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="9">
@@ -5590,10 +5610,10 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="9">

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="259">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -349,13 +349,16 @@
     <t xml:space="preserve">agreement_of_adpositions</t>
   </si>
   <si>
-    <t xml:space="preserve">Days after today</t>
+    <t xml:space="preserve">Days before and after today</t>
   </si>
   <si>
     <t xml:space="preserve">Timofey Dedov</t>
   </si>
   <si>
-    <t xml:space="preserve">days_after_today</t>
+    <t xml:space="preserve">June 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days_before_and_after_today</t>
   </si>
   <si>
     <t xml:space="preserve">Days before today</t>
@@ -1242,10 +1245,10 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M86" activeCellId="0" sqref="M86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2813,8 +2816,8 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>108</v>
@@ -2832,14 +2835,14 @@
         <v>102</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
@@ -2860,11 +2863,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>109</v>
@@ -2886,7 +2889,7 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
@@ -2911,38 +2914,38 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L35" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>22</v>
@@ -2963,35 +2966,35 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>22</v>
@@ -3012,35 +3015,35 @@
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>22</v>
@@ -3061,35 +3064,35 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>22</v>
@@ -3110,35 +3113,35 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>22</v>
@@ -3159,35 +3162,35 @@
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>22</v>
@@ -3208,35 +3211,35 @@
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>22</v>
@@ -3257,35 +3260,35 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>22</v>
@@ -3306,35 +3309,35 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>22</v>
@@ -3355,35 +3358,35 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>22</v>
@@ -3404,35 +3407,35 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>22</v>
@@ -3453,35 +3456,35 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>22</v>
@@ -3502,35 +3505,35 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>22</v>
@@ -3551,35 +3554,35 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>22</v>
@@ -3600,36 +3603,36 @@
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F49" s="8" t="n">
         <v>2023</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -3647,35 +3650,35 @@
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>22</v>
@@ -3696,29 +3699,29 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2" t="s">
@@ -3743,35 +3746,35 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>28</v>
@@ -3792,36 +3795,36 @@
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
         <v>45</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -3846,29 +3849,29 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
@@ -3893,29 +3896,29 @@
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2" t="s">
@@ -3940,29 +3943,29 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
@@ -3987,29 +3990,29 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2" t="s">
@@ -4034,29 +4037,29 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
@@ -4081,29 +4084,29 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
@@ -4128,36 +4131,36 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>2024</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -4182,29 +4185,29 @@
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>2025</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
@@ -4236,36 +4239,36 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>2025</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -4283,29 +4286,29 @@
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>2025</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2" t="s">
@@ -4325,10 +4328,10 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="n">
@@ -4357,10 +4360,10 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="n">
@@ -4389,13 +4392,13 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>2021</v>
@@ -4423,10 +4426,10 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -4453,13 +4456,13 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>2022</v>
@@ -4487,13 +4490,13 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>2022</v>
@@ -4521,10 +4524,10 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -4535,7 +4538,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>22</v>
@@ -4551,10 +4554,10 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="n">
@@ -4583,16 +4586,16 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>37</v>
@@ -4606,7 +4609,7 @@
         <v>27</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -4619,10 +4622,10 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="n">
@@ -4660,13 +4663,13 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>2022</v>
@@ -4681,7 +4684,7 @@
         <v>27</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -4701,7 +4704,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>93</v>
@@ -4738,10 +4741,10 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -4752,7 +4755,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -4773,10 +4776,10 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="n">
@@ -4812,10 +4815,10 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="n">
@@ -4851,10 +4854,10 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="n">
@@ -4885,7 +4888,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>15</v>
@@ -4917,10 +4920,10 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="n">
@@ -4933,10 +4936,10 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -4949,10 +4952,10 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="n">
@@ -4981,10 +4984,10 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="n">
@@ -4997,7 +5000,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -5011,10 +5014,10 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="n">
@@ -5043,10 +5046,10 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="n">
@@ -5061,7 +5064,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>28</v>
@@ -5077,10 +5080,10 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="n">
@@ -5105,10 +5108,10 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F87" s="2" t="n">
         <v>2024</v>
@@ -5118,10 +5121,10 @@
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="n">
@@ -5148,10 +5151,10 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="n">
@@ -5164,7 +5167,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -5178,10 +5181,10 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="n">
@@ -5210,10 +5213,10 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="n">
@@ -5238,10 +5241,10 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="n">

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -2815,9 +2815,8 @@
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="B33" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>108</v>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -2815,7 +2815,8 @@
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="b">
+      <c r="B33" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -628,7 +628,7 @@
     <t xml:space="preserve">path_encoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Expression of the sense "to work"</t>
+    <t xml:space="preserve">Expression of the sense ‘to work’</t>
   </si>
   <si>
     <t xml:space="preserve">Svetlana Zemicheva, Konstantin Filatov</t>
@@ -1273,16 +1273,16 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="C62" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="60.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="14.25"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -11,7 +11,7 @@
     <sheet name="merged" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">merged!$A$1:$N$97</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">merged!$A$1:$N$100</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="283">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -664,6 +664,36 @@
     <t xml:space="preserve">adjectives_number</t>
   </si>
   <si>
+    <t xml:space="preserve">Verbal negation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbal_negation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negation with prefixes, infixes and particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbal_negation_prefixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negation with suffixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbal_negation_suffixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negation with auxiliaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbal_negation_aux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negation with reduplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbal_negation_reduplication</t>
+  </si>
+  <si>
     <t xml:space="preserve">Usage of volitional forms in subordinate clauses</t>
   </si>
   <si>
@@ -800,9 +830,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hortatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negation</t>
   </si>
   <si>
     <t xml:space="preserve">Colexification of love/want</t>
@@ -947,7 +974,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -982,6 +1009,14 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1273,9 +1308,9 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C62" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4415,29 +4450,46 @@
       <c r="T64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2" t="s">
+      <c r="A65" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>213</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K65" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2" t="n">
-        <v>2023</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="L65" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" s="9"/>
       <c r="N65" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -4447,29 +4499,43 @@
       <c r="T65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2" t="s">
+      <c r="A66" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>215</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K66" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="L66" s="10"/>
+      <c r="M66" s="9"/>
       <c r="N66" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -4479,31 +4545,43 @@
       <c r="T66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="C67" s="9" t="s">
         <v>217</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K67" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F67" s="2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="L67" s="10"/>
+      <c r="M67" s="9"/>
       <c r="N67" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -4513,27 +4591,43 @@
       <c r="T67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
+      <c r="A68" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K68" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="9"/>
       <c r="N68" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -4543,31 +4637,43 @@
       <c r="T68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="C69" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K69" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F69" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="L69" s="10"/>
+      <c r="M69" s="9"/>
       <c r="N69" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -4579,17 +4685,15 @@
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="9" t="s">
-        <v>225</v>
+      <c r="C70" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>227</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E70" s="2"/>
       <c r="F70" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -4598,7 +4702,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>29</v>
@@ -4614,26 +4718,26 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="F71" s="2" t="n">
+        <v>2021</v>
+      </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2" t="s">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -4645,15 +4749,17 @@
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="2" t="s">
-        <v>230</v>
+      <c r="C72" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E72" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="F72" s="2" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -4677,21 +4783,15 @@
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="9" t="s">
-        <v>232</v>
+      <c r="C73" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -4701,7 +4801,7 @@
         <v>28</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -4710,29 +4810,29 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
-        <v>236</v>
+      <c r="C74" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E74" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="F74" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>29</v>
@@ -4743,25 +4843,18 @@
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-      <c r="AA74" s="2"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="9" t="s">
-        <v>238</v>
+      <c r="C75" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>2022</v>
@@ -4773,10 +4866,10 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -4784,27 +4877,18 @@
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="2" t="n">
-        <v>2024</v>
-      </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2" t="s">
@@ -4814,34 +4898,31 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="2" t="n">
+        <v>2022</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -4849,47 +4930,46 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G78" s="2"/>
+      <c r="F78" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -4909,10 +4989,10 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="n">
@@ -4920,12 +5000,14 @@
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="I79" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>29</v>
@@ -4944,32 +5026,32 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
-        <v>247</v>
+      <c r="C80" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="F80" s="2" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -4977,19 +5059,26 @@
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -5000,7 +5089,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -5009,53 +5098,61 @@
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="2" t="n">
-        <v>2023</v>
-      </c>
+      <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="N82" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
         <v>253</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -5075,32 +5172,39 @@
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="9" t="s">
-        <v>254</v>
+      <c r="C84" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -5111,24 +5215,26 @@
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="9" t="s">
-        <v>256</v>
+      <c r="C85" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="I85" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>29</v>
@@ -5144,23 +5250,25 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="I86" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -5170,25 +5278,48 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="E87" s="2"/>
       <c r="F87" s="2" t="n">
-        <v>2024</v>
-      </c>
+        <v>2023</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="n">
@@ -5196,16 +5327,16 @@
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -5216,11 +5347,11 @@
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="2" t="s">
-        <v>262</v>
+      <c r="C89" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="n">
@@ -5228,12 +5359,14 @@
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="I89" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -5246,11 +5379,11 @@
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="9" t="s">
-        <v>264</v>
+      <c r="C90" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="n">
@@ -5263,7 +5396,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>29</v>
@@ -5275,14 +5408,12 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="n">
@@ -5294,38 +5425,36 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
+      <c r="M91" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+      <c r="I92" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="M92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -5337,20 +5466,24 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2" t="n">
+        <v>2024</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
+      <c r="M93" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -5362,22 +5495,28 @@
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="2" t="s">
-        <v>271</v>
+      <c r="C94" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="F94" s="2" t="n">
+        <v>2024</v>
+      </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="M94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
@@ -5388,12 +5527,16 @@
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="D95" s="2" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
+      <c r="F95" s="2" t="n">
+        <v>2024</v>
+      </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -5412,12 +5555,16 @@
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="D96" s="2" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+      <c r="F96" s="2" t="n">
+        <v>2025</v>
+      </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -5425,7 +5572,9 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -5436,9 +5585,11 @@
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="D97" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -5460,8 +5611,12 @@
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -5483,7 +5638,9 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -5505,7 +5662,9 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -5527,7 +5686,9 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -9131,7 +9292,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9153,7 +9314,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9175,7 +9336,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9439,9 +9600,72 @@
       <c r="S278" s="2"/>
       <c r="T278" s="2"/>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
+      <c r="H279" s="2"/>
+      <c r="I279" s="2"/>
+      <c r="J279" s="2"/>
+      <c r="K279" s="2"/>
+      <c r="L279" s="2"/>
+      <c r="M279" s="2"/>
+      <c r="N279" s="2"/>
+      <c r="O279" s="2"/>
+      <c r="P279" s="2"/>
+      <c r="Q279" s="2"/>
+      <c r="R279" s="2"/>
+      <c r="S279" s="2"/>
+      <c r="T279" s="2"/>
+    </row>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+      <c r="J280" s="2"/>
+      <c r="K280" s="2"/>
+      <c r="L280" s="2"/>
+      <c r="M280" s="2"/>
+      <c r="N280" s="2"/>
+      <c r="O280" s="2"/>
+      <c r="P280" s="2"/>
+      <c r="Q280" s="2"/>
+      <c r="R280" s="2"/>
+      <c r="S280" s="2"/>
+      <c r="T280" s="2"/>
+    </row>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2"/>
+      <c r="I281" s="2"/>
+      <c r="J281" s="2"/>
+      <c r="K281" s="2"/>
+      <c r="L281" s="2"/>
+      <c r="M281" s="2"/>
+      <c r="N281" s="2"/>
+      <c r="O281" s="2"/>
+      <c r="P281" s="2"/>
+      <c r="Q281" s="2"/>
+      <c r="R281" s="2"/>
+      <c r="S281" s="2"/>
+      <c r="T281" s="2"/>
+    </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10162,9 +10386,13 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:N97"/>
+  <autoFilter ref="A1:N100"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -1308,9 +1308,9 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="B67" activeCellId="0" sqref="B67:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4502,7 +4502,8 @@
       <c r="A66" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="b">
+      <c r="B66" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -4548,7 +4549,8 @@
       <c r="A67" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="b">
+      <c r="B67" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C67" s="9" t="s">
@@ -4594,7 +4596,8 @@
       <c r="A68" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="b">
+      <c r="B68" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C68" s="9" t="s">
@@ -4640,7 +4643,8 @@
       <c r="A69" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="b">
+      <c r="B69" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C69" s="9" t="s">

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -685,7 +685,7 @@
     <t xml:space="preserve">Negation with auxiliaries</t>
   </si>
   <si>
-    <t xml:space="preserve">verbal_negation_aux</t>
+    <t xml:space="preserve">verbal_negation_auxiliaries</t>
   </si>
   <si>
     <t xml:space="preserve">Negation with reduplication</t>
@@ -974,7 +974,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1011,11 +1011,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1310,7 +1306,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B67" activeCellId="0" sqref="B67:B69"/>
+      <selection pane="bottomLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4457,7 +4453,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -4475,19 +4471,19 @@
       <c r="H65" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="I65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="K65" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L65" s="10" t="b">
+      <c r="L65" s="9" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M65" s="9"/>
       <c r="N65" s="2" t="s">
         <v>59</v>
       </c>
@@ -4506,7 +4502,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -4524,17 +4520,16 @@
       <c r="H66" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="I66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="K66" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="9"/>
+      <c r="L66" s="9"/>
       <c r="N66" s="2" t="s">
         <v>59</v>
       </c>
@@ -4550,10 +4545,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="9" t="s">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -4571,17 +4566,16 @@
       <c r="H67" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K67" s="9" t="s">
+      <c r="K67" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="9"/>
+      <c r="L67" s="9"/>
       <c r="N67" s="2" t="s">
         <v>59</v>
       </c>
@@ -4600,7 +4594,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -4618,17 +4612,16 @@
       <c r="H68" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="I68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="J68" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K68" s="9" t="s">
+      <c r="K68" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="9"/>
+      <c r="L68" s="9"/>
       <c r="N68" s="2" t="s">
         <v>59</v>
       </c>
@@ -4647,7 +4640,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -4665,17 +4658,16 @@
       <c r="H69" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="I69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="J69" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K69" s="9" t="s">
+      <c r="K69" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="9"/>
+      <c r="L69" s="9"/>
       <c r="N69" s="2" t="s">
         <v>59</v>
       </c>
@@ -4753,7 +4745,7 @@
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>227</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -4817,7 +4809,7 @@
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>232</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -4851,7 +4843,7 @@
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>235</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -4949,13 +4941,13 @@
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>242</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F78" s="7" t="s">
@@ -5033,7 +5025,7 @@
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>248</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -5351,7 +5343,7 @@
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>264</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -5383,7 +5375,7 @@
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>266</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -5499,7 +5491,7 @@
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>273</v>
       </c>
       <c r="D94" s="2" t="s">

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -1303,10 +1303,10 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="K65" activeCellId="0" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4591,8 +4591,8 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>219</v>
@@ -4637,8 +4637,8 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>221</v>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="288">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -694,6 +694,21 @@
     <t xml:space="preserve">verbal_negation_reduplication</t>
   </si>
   <si>
+    <t xml:space="preserve">Imperative interjection ‘here, take it!’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interjection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imperative_interjections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ira</t>
+  </si>
+  <si>
     <t xml:space="preserve">Usage of volitional forms in subordinate clauses</t>
   </si>
   <si>
@@ -739,12 +754,12 @@
     <t xml:space="preserve">Masha Ogurtsova</t>
   </si>
   <si>
+    <t xml:space="preserve">Timur Maisak, Samira Verhees</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time nouns</t>
   </si>
   <si>
-    <t xml:space="preserve">Timur Maisak, Samira Verhees</t>
-  </si>
-  <si>
     <t xml:space="preserve">Infinitive in the tense-aspect system</t>
   </si>
   <si>
@@ -778,12 +793,12 @@
     <t xml:space="preserve">Non-verbal imperatives</t>
   </si>
   <si>
+    <t xml:space="preserve">Timur Maisak, Michael Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Person agreement</t>
   </si>
   <si>
-    <t xml:space="preserve">Timur Maisak, Michael Daniel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Affective predicates: argument encoding</t>
   </si>
   <si>
@@ -805,13 +820,13 @@
     <t xml:space="preserve">Concept 'maize'</t>
   </si>
   <si>
+    <t xml:space="preserve">Zaira Khalilova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lena</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adaptation of verbal borrowings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zaira Khalilova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lena</t>
   </si>
   <si>
     <t xml:space="preserve">Reflexive pronouns</t>
@@ -974,7 +989,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1012,6 +1027,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1303,10 +1322,10 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K65" activeCellId="0" sqref="K65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4679,29 +4698,42 @@
       <c r="T69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2" t="s">
+      <c r="A70" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>223</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E70" s="2"/>
       <c r="F70" s="2" t="n">
-        <v>2023</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+        <v>2025</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="L70" s="2"/>
-      <c r="M70" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -4714,14 +4746,14 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -4745,15 +4777,13 @@
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="10" t="s">
-        <v>227</v>
+      <c r="C72" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="2" t="n">
         <v>2021</v>
       </c>
@@ -4779,14 +4809,18 @@
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="2" t="s">
-        <v>230</v>
+      <c r="C73" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>2021</v>
+      </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -4809,18 +4843,14 @@
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="10" t="s">
-        <v>232</v>
+      <c r="C74" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F74" s="2" t="n">
-        <v>2022</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -4843,14 +4873,14 @@
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="10" t="s">
-        <v>235</v>
+      <c r="C75" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>2022</v>
@@ -4877,24 +4907,26 @@
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2" t="s">
-        <v>238</v>
+      <c r="C76" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>2022</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>22</v>
@@ -4910,18 +4942,18 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="2" t="n">
-        <v>2022</v>
-      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="I77" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -4941,21 +4973,17 @@
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="10" t="s">
-        <v>242</v>
+      <c r="C78" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -4984,21 +5012,23 @@
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="2" t="s">
-        <v>246</v>
+      <c r="C79" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G79" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H79" s="2"/>
-      <c r="I79" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -5025,21 +5055,21 @@
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="10" t="s">
-        <v>248</v>
+      <c r="C80" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="E80" s="2"/>
       <c r="F80" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="I80" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -5066,21 +5096,21 @@
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="2" t="s">
-        <v>250</v>
+      <c r="C81" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E81" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="F81" s="2" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -5106,21 +5136,25 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2" t="n">
+        <v>2024</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+      <c r="I82" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -5141,15 +5175,13 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="2" t="n">
-        <v>2022</v>
-      </c>
+      <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -5180,10 +5212,10 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="n">
@@ -5212,20 +5244,18 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -5246,10 +5276,10 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="n">
@@ -5278,10 +5308,10 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="n">
@@ -5296,10 +5326,10 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -5312,18 +5342,20 @@
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="I88" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -5343,11 +5375,11 @@
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="10" t="s">
-        <v>264</v>
+      <c r="C89" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="n">
@@ -5355,9 +5387,7 @@
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -5375,11 +5405,11 @@
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="10" t="s">
-        <v>266</v>
+      <c r="C90" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="n">
@@ -5387,7 +5417,9 @@
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="I90" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -5405,11 +5437,11 @@
       <c r="T90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="2" t="s">
-        <v>268</v>
+      <c r="C91" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="n">
@@ -5430,7 +5462,7 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>270</v>
@@ -5441,9 +5473,7 @@
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -5462,10 +5492,10 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="n">
@@ -5473,7 +5503,9 @@
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
+      <c r="I93" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -5491,11 +5523,11 @@
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="10" t="s">
-        <v>273</v>
+      <c r="C94" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="n">
@@ -5523,11 +5555,11 @@
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="2" t="s">
-        <v>274</v>
+      <c r="C95" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="n">
@@ -5552,14 +5584,14 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -5582,13 +5614,15 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="F97" s="2" t="n">
+        <v>2025</v>
+      </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -5608,10 +5642,10 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -5633,9 +5667,11 @@
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D99" s="2" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -5659,7 +5695,7 @@
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -5683,7 +5719,7 @@
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -5706,7 +5742,9 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="290">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -709,6 +709,24 @@
     <t xml:space="preserve">Ira</t>
   </si>
   <si>
+    <t xml:space="preserve">Class agreement slot in adjectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alina Khurges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender_agreement_in_nps_in_adjectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class agreement slot in verb forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan Olkhov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender_agreement_slot_in_verb_forms</t>
+  </si>
+  <si>
     <t xml:space="preserve">Usage of volitional forms in subordinate clauses</t>
   </si>
   <si>
@@ -853,19 +871,7 @@
     <t xml:space="preserve">Anastasia Antsupova</t>
   </si>
   <si>
-    <t xml:space="preserve">Class agreement slot in verb forms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivan Olkhov</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transitive causee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class agreement slot in adjectives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alina Hurges</t>
   </si>
   <si>
     <t xml:space="preserve">Colexification of take/buy</t>
@@ -989,7 +995,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1027,10 +1033,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1322,10 +1324,10 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="O72" activeCellId="0" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4705,13 +4707,13 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F70" s="2" t="n">
@@ -4723,11 +4725,10 @@
       <c r="H70" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="I70" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10" t="s">
+      <c r="K70" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L70" s="2"/>
@@ -4743,26 +4744,41 @@
       <c r="T70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="C71" s="2" t="s">
         <v>228</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="F71" s="2" t="n">
-        <v>2023</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+        <v>2025</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
+      <c r="K71" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>29</v>
@@ -4775,29 +4791,44 @@
       <c r="T71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="C72" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E72" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="F72" s="2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+        <v>2024</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="K72" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -4809,17 +4840,15 @@
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="11" t="s">
-        <v>232</v>
+      <c r="C73" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="E73" s="2"/>
       <c r="F73" s="2" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -4844,13 +4873,15 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2" t="n">
+        <v>2021</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -4858,10 +4889,10 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -4873,17 +4904,17 @@
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="11" t="s">
-        <v>237</v>
+      <c r="C75" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -4892,7 +4923,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>29</v>
@@ -4907,18 +4938,14 @@
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="11" t="s">
-        <v>240</v>
+      <c r="C76" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F76" s="2" t="n">
-        <v>2022</v>
-      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -4926,10 +4953,10 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2" t="s">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -4941,19 +4968,21 @@
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>2022</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -4961,7 +4990,7 @@
         <v>95</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -4970,16 +4999,18 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
-        <v>245</v>
+      <c r="C78" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E78" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="F78" s="2" t="n">
         <v>2022</v>
       </c>
@@ -4990,10 +5021,10 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2" t="s">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -5001,42 +5032,31 @@
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="11" t="s">
-        <v>247</v>
+      <c r="C79" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E79" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F79" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="I79" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -5044,13 +5064,6 @@
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
@@ -5067,9 +5080,7 @@
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -5096,28 +5107,32 @@
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E81" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G81" s="2"/>
+      <c r="E81" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -5136,14 +5151,14 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -5154,9 +5169,11 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -5174,14 +5191,18 @@
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="2" t="s">
-        <v>257</v>
+      <c r="C83" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>2022</v>
+      </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -5191,9 +5212,7 @@
       <c r="M83" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N83" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
@@ -5208,51 +5227,56 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+      <c r="I84" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="2" t="n">
-        <v>2022</v>
-      </c>
+      <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -5260,7 +5284,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>29</v>
@@ -5271,32 +5295,39 @@
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -5308,28 +5339,26 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2" t="s">
-        <v>265</v>
+        <v>55</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -5342,10 +5371,10 @@
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="n">
@@ -5360,11 +5389,9 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -5376,25 +5403,29 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="I89" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -5405,26 +5436,26 @@
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="11" t="s">
-        <v>269</v>
+      <c r="C90" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>29</v>
@@ -5436,12 +5467,14 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="11" t="s">
-        <v>271</v>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="n">
@@ -5454,18 +5487,24 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="2" t="s">
-        <v>273</v>
+      <c r="C92" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="n">
@@ -5473,14 +5512,18 @@
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+      <c r="I92" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -5488,14 +5531,12 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2" t="s">
-        <v>274</v>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="n">
@@ -5503,31 +5544,23 @@
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="n">
@@ -5540,11 +5573,9 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
@@ -5555,11 +5586,11 @@
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="11" t="s">
-        <v>278</v>
+      <c r="C95" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="n">
@@ -5567,11 +5598,15 @@
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
+      <c r="I95" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
+      <c r="M95" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -5583,11 +5618,11 @@
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="2" t="s">
-        <v>279</v>
+      <c r="C96" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="n">
@@ -5600,9 +5635,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-      <c r="N96" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -5614,10 +5647,10 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="n">
@@ -5642,10 +5675,10 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -5668,10 +5701,10 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -5719,7 +5752,7 @@
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -5743,7 +5776,7 @@
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -709,7 +709,7 @@
     <t xml:space="preserve">Ira</t>
   </si>
   <si>
-    <t xml:space="preserve">Class agreement slot in adjectives</t>
+    <t xml:space="preserve">Gender agreement slot in adjectives</t>
   </si>
   <si>
     <t xml:space="preserve">Alina Khurges </t>
@@ -718,7 +718,7 @@
     <t xml:space="preserve">gender_agreement_in_nps_in_adjectives</t>
   </si>
   <si>
-    <t xml:space="preserve">Class agreement slot in verb forms</t>
+    <t xml:space="preserve">Gender agreement slot in verb forms</t>
   </si>
   <si>
     <t xml:space="preserve">Ivan Olkhov</t>
@@ -1324,10 +1324,10 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="O72" activeCellId="0" sqref="O72"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/contributors.xlsx
+++ b/data/contributors.xlsx
@@ -1324,10 +1324,10 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="N72" activeCellId="0" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
